--- a/Резы/Респа для МИВТ-91 на 2020 год.xlsx
+++ b/Резы/Респа для МИВТ-91 на 2020 год.xlsx
@@ -788,8 +788,8 @@
       <c r="H3" s="6" t="inlineStr">
         <is>
           <t>307
-307
-310</t>
+310
+301</t>
         </is>
       </c>
       <c r="I3" s="6" t="inlineStr">
@@ -991,8 +991,8 @@
       <c r="H9" s="9" t="inlineStr">
         <is>
           <t>310
-310
-304</t>
+307
+402</t>
         </is>
       </c>
       <c r="I9" s="9" t="inlineStr">
@@ -1322,7 +1322,7 @@
       <c r="G3" s="14" t="n"/>
       <c r="H3" s="13" t="n"/>
       <c r="I3" s="6" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
@@ -1501,8 +1501,8 @@
       <c r="H9" s="15" t="n"/>
       <c r="I9" s="9" t="inlineStr">
         <is>
-          <t>310
-304</t>
+          <t>307
+402</t>
         </is>
       </c>
       <c r="J9" s="9" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="F3" s="14" t="n"/>
       <c r="G3" s="13" t="n"/>
       <c r="H3" s="6" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I3" s="6" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       <c r="G10" s="11" t="n"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>310, 307</t>
+          <t>307, 304</t>
         </is>
       </c>
       <c r="I10" s="9" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="6" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
@@ -2289,9 +2289,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="22" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="6" t="n">
-        <v>310</v>
-      </c>
+      <c r="I4" s="23" t="n"/>
       <c r="J4" s="23" t="n"/>
     </row>
     <row r="5" ht="34" customHeight="1">
@@ -2460,7 +2458,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="G6:H6"/>
@@ -2472,6 +2470,7 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A6:A7"/>

--- a/Резы/Респа для МИВТ-91 на 2020 год.xlsx
+++ b/Резы/Респа для МИВТ-91 на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -101,44 +101,44 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -166,42 +166,42 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -236,14 +236,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -271,17 +271,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,9 +290,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -672,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -755,44 +755,57 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="68" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: лекция (общ)</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>307
 310
 301</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.
 Обвинцев О.А.
@@ -801,39 +814,39 @@
       </c>
     </row>
     <row r="4" ht="68" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Моделирование: ПР (общ)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>307
 310
 304</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Денисов Д.В.
 Обвинцев О.А.
@@ -842,29 +855,29 @@
       </c>
     </row>
     <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="9" t="n">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Моделирование: лекция (общ)</t>
         </is>
       </c>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="E5" s="12" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>101, 304</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
@@ -876,59 +889,59 @@
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="D6" s="8" t="n"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Моделирование: лекция (общ)</t>
         </is>
       </c>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="6" t="n">
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="51" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="6" t="n">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="6" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>205
 301</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.
 Петров С.Б.</t>
@@ -936,66 +949,66 @@
       </c>
     </row>
     <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="6" t="n">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Научный семинар: ПР (общ)</t>
         </is>
       </c>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="6" t="n">
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="3" t="n">
         <v>402</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>Сапожников Г.Н.</t>
         </is>
       </c>
     </row>
     <row r="9" ht="68" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="9" t="n">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>Научный семинар: ПР (общ)</t>
         </is>
       </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="G9" s="14" t="n"/>
+      <c r="H9" s="10" t="inlineStr">
         <is>
           <t>310
 307
 402</t>
         </is>
       </c>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="I9" s="10" t="inlineStr">
         <is>
           <t>Обвинцев О.А.
 Денисов Д.В.
@@ -1006,173 +1019,281 @@
     <row r="10" ht="34" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="14" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="13" t="n"/>
-      <c r="H10" s="6" t="n">
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="9" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="F11" s="16" t="n"/>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="8" t="n"/>
-      <c r="I11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="14" t="n"/>
-      <c r="G12" s="13" t="n"/>
-      <c r="H12" s="6" t="n">
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="G13" s="13" t="n"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>307, 304</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>Денисов Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="6" t="n">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Моделирование: лекция (общ)</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n"/>
-      <c r="H14" s="6" t="n">
+      <c r="E17" s="8" t="n"/>
+      <c r="H17" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="n">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D18" s="11" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="E15" s="11" t="n"/>
-      <c r="F15" s="17" t="n"/>
-      <c r="G15" s="17" t="n"/>
-      <c r="H15" s="9" t="n">
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="17" t="n"/>
+      <c r="G18" s="17" t="n"/>
+      <c r="H18" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="I15" s="9" t="inlineStr">
+      <c r="I18" s="10" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.</t>
         </is>
       </c>
     </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="n"/>
+      <c r="F20" s="16" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -1180,18 +1301,25 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
@@ -1205,7 +1333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1294,91 +1422,105 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="6" t="n">
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Петров С.Б.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Моделирование: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Моделирование: ПР (общ)</t>
         </is>
       </c>
       <c r="G4" s="18" t="n"/>
       <c r="H4" s="19" t="n"/>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
     <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="9" t="n">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="11" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="12" t="n"/>
       <c r="F5" s="20" t="n"/>
       <c r="G5" s="17" t="n"/>
       <c r="H5" s="21" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
     </row>
     <row r="6" ht="34" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1386,90 +1528,90 @@
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Моделирование: лекция (общ)</t>
         </is>
       </c>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="6" t="n">
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="6" t="n">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="6" t="n">
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Петров С.Б.</t>
         </is>
       </c>
     </row>
     <row r="8" ht="51" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="6" t="n">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Научный семинар: ПР (общ)</t>
         </is>
       </c>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>402
 301</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Сапожников Г.Н.
 Петров С.Б.</t>
@@ -1477,35 +1619,35 @@
       </c>
     </row>
     <row r="9" ht="51" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="9" t="n">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>Научный семинар: ПР (общ)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: лекция (общ)</t>
         </is>
       </c>
       <c r="F9" s="16" t="n"/>
       <c r="G9" s="16" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="10" t="inlineStr">
         <is>
           <t>307
 402</t>
         </is>
       </c>
-      <c r="J9" s="9" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>Денисов Д.В.
 Сапожников Г.Н.</t>
@@ -1515,127 +1657,237 @@
     <row r="10" ht="34" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="n"/>
+      <c r="F12" s="16" t="n"/>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="14" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J12" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="7" t="inlineStr">
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="6" t="n">
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="9" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="F11" s="16" t="n"/>
-      <c r="G11" s="16" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="8" t="n"/>
-      <c r="J11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="F14" s="16" t="n"/>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="14" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="6" t="n">
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="9" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D16" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n"/>
-      <c r="F13" s="16" t="n"/>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="9" t="n">
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="14" t="n"/>
+      <c r="I16" s="10" t="n">
         <v>304</v>
       </c>
-      <c r="J13" s="9" t="inlineStr">
+      <c r="J16" s="10" t="inlineStr">
         <is>
           <t>Денисов Д.В.</t>
         </is>
       </c>
     </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="n"/>
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J18" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="D6:G6"/>
@@ -1643,19 +1895,26 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A2:A5"/>
@@ -1670,7 +1929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1753,66 +2012,79 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="6" t="n">
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Петров С.Б.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Моделирование: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>304
 301</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Петров С.Б.</t>
@@ -1820,30 +2092,30 @@
       </c>
     </row>
     <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="6" t="n">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
       <c r="D5" s="22" t="n"/>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>304
 205</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Новокшенова Р.Г.</t>
@@ -1851,27 +2123,27 @@
       </c>
     </row>
     <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="9" t="n">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>16:05 - 17:40</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
       <c r="E6" s="16" t="n"/>
       <c r="F6" s="16" t="n"/>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="9" t="n">
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="I6" s="9" t="inlineStr">
+      <c r="I6" s="10" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
@@ -1883,86 +2155,86 @@
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n"/>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="n"/>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="6" t="n">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
     <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="6" t="n">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="6" t="n">
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>Петров С.Б.</t>
         </is>
       </c>
     </row>
     <row r="9" ht="51" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Распределенная обработка информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>301
 304</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Петров С.Б.
 Денисов Д.В.</t>
@@ -1970,33 +2242,33 @@
       </c>
     </row>
     <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="n">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="11" t="n"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="12" t="n"/>
+      <c r="H10" s="10" t="inlineStr">
         <is>
           <t>307, 304</t>
         </is>
       </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="I10" s="10" t="inlineStr">
         <is>
           <t>Денисов Д.В.</t>
         </is>
@@ -2005,119 +2277,227 @@
     <row r="11" ht="34" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+    </row>
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="n"/>
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="E11" s="18" t="n"/>
-      <c r="F11" s="18" t="n"/>
-      <c r="G11" s="19" t="n"/>
-      <c r="H11" s="6" t="n">
+      <c r="E14" s="18" t="n"/>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="19" t="n"/>
+      <c r="H14" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="9" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D12" s="20" t="n"/>
-      <c r="E12" s="17" t="n"/>
-      <c r="F12" s="17" t="n"/>
-      <c r="G12" s="21" t="n"/>
-      <c r="H12" s="8" t="n"/>
-      <c r="I12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="D15" s="20" t="n"/>
+      <c r="E15" s="17" t="n"/>
+      <c r="F15" s="17" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="9" t="n"/>
+      <c r="I15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="51" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="E13" s="13" t="n"/>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="6" t="inlineStr">
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>310
 308</t>
         </is>
       </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.
 Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="n">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n"/>
-      <c r="F14" s="15" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="9" t="n">
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="14" t="n"/>
+      <c r="G17" s="12" t="n"/>
+      <c r="H17" s="10" t="n">
         <v>304</v>
       </c>
-      <c r="I14" s="9" t="inlineStr">
+      <c r="I17" s="10" t="inlineStr">
         <is>
           <t>Денисов Д.В.</t>
         </is>
       </c>
     </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n"/>
+      <c r="H18" s="15" t="n"/>
+      <c r="I18" s="15" t="n"/>
+    </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="16" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="E4:G4"/>
@@ -2128,14 +2508,21 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D14:G15"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
@@ -2149,7 +2536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2163,7 +2550,7 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
-    <col width="23.5" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="76.39999999999999" customWidth="1" min="5" max="5"/>
     <col width="23.5" customWidth="1" min="6" max="6"/>
     <col width="61.9" customWidth="1" min="7" max="7"/>
@@ -2238,83 +2625,97 @@
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="3" t="n">
+        <v>308</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="7" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="6" t="n">
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="22" t="n"/>
-      <c r="F4" s="4" t="n"/>
+      <c r="F4" s="8" t="n"/>
       <c r="G4" s="22" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="8" t="n"/>
       <c r="I4" s="23" t="n"/>
       <c r="J4" s="23" t="n"/>
     </row>
     <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="9" t="n">
+      <c r="A5" s="9" t="n"/>
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (общ)</t>
         </is>
       </c>
       <c r="F5" s="16" t="n"/>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="9" t="n">
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="10" t="n">
         <v>205</v>
       </c>
-      <c r="J5" s="9" t="inlineStr">
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>Новокшенова Р.Г.</t>
         </is>
@@ -2323,157 +2724,274 @@
     <row r="6" ht="34" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+    </row>
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+    </row>
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J8" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="I6" s="6" t="n">
+      <c r="F9" s="19" t="n"/>
+      <c r="G9" s="8" t="n"/>
+      <c r="I9" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="9" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="21" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="17" t="n"/>
-      <c r="I7" s="8" t="n"/>
-      <c r="J7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="D10" s="12" t="n"/>
+      <c r="E10" s="20" t="n"/>
+      <c r="F10" s="21" t="n"/>
+      <c r="G10" s="12" t="n"/>
+      <c r="H10" s="17" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Сетевые базы данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="6" t="n">
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="3" t="n">
         <v>308</v>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>Иванов Д.И.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Перспективные технологии защиты информации: ПР (общ)</t>
         </is>
       </c>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="6" t="n">
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="J9" s="6" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>Денисов Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="17" t="n"/>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="D13" s="12" t="n"/>
+      <c r="E13" s="17" t="n"/>
+      <c r="F13" s="17" t="n"/>
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Современные проблемы информатики: ПР (общ)</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="9" t="n">
+      <c r="H13" s="12" t="n"/>
+      <c r="I13" s="10" t="n">
         <v>310</v>
       </c>
-      <c r="J10" s="9" t="inlineStr">
+      <c r="J13" s="10" t="inlineStr">
         <is>
           <t>Обвинцев О.А.</t>
         </is>
       </c>
     </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>НИРС: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="n"/>
+      <c r="F15" s="16" t="n"/>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J15" s="10" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="24">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="E9:F10"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
